--- a/FMEA.xlsx
+++ b/FMEA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="1200" windowWidth="25600" windowHeight="19040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
   <si>
     <t>Hardware failiure</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Effect</t>
-  </si>
-  <si>
     <t>Possible cause</t>
   </si>
   <si>
@@ -64,13 +61,255 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Severity Table</t>
+  </si>
+  <si>
+    <t>Explenation</t>
+  </si>
+  <si>
+    <t>No implication</t>
+  </si>
+  <si>
+    <t>Dangerous, risk for human injury</t>
+  </si>
+  <si>
+    <t>Human and mechanical injury likely</t>
+  </si>
+  <si>
+    <t>Replace components</t>
+  </si>
+  <si>
+    <t>Arduino motor driver</t>
+  </si>
+  <si>
+    <t>Arduino encoder counter</t>
+  </si>
+  <si>
+    <t>No feedback to control loop</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Probability table</t>
+  </si>
+  <si>
+    <t>Local effect</t>
+  </si>
+  <si>
+    <t>System Effect</t>
+  </si>
+  <si>
+    <t>Watchdog cuts power to engines.</t>
+  </si>
+  <si>
+    <t>STOP (from watchdog)</t>
+  </si>
+  <si>
+    <t>Arduino Relay driver</t>
+  </si>
+  <si>
+    <t>Hardware failiure (device lock)</t>
+  </si>
+  <si>
+    <t>Relays reset</t>
+  </si>
+  <si>
+    <t>Emergency light on, No power to engines</t>
+  </si>
+  <si>
+    <t>Relays stuck</t>
+  </si>
+  <si>
+    <t>State stuck, cannot cut power to engines</t>
+  </si>
+  <si>
+    <t>GPS Serial converter</t>
+  </si>
+  <si>
+    <t>No GPS data</t>
+  </si>
+  <si>
+    <t>GPS tracking lost</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>No networking</t>
+  </si>
+  <si>
+    <t>No external communication, no cameras,
+no LIDAR.</t>
+  </si>
+  <si>
+    <t>ROS notification</t>
+  </si>
+  <si>
+    <t>Hardware failiure (device off)</t>
+  </si>
+  <si>
+    <t>LIDAR</t>
+  </si>
+  <si>
+    <t>No Lidar data</t>
+  </si>
+  <si>
+    <t>No colission detection</t>
+  </si>
+  <si>
+    <t>No lidarplot</t>
+  </si>
+  <si>
+    <t>Stop vehicle, shutdown all,
+manually shut off power.</t>
+  </si>
+  <si>
+    <t>Remote (relatively
+few failures)</t>
+  </si>
+  <si>
+    <t>Occasional (occasional
+failures)</t>
+  </si>
+  <si>
+    <t>Reasonably Possible
+(repeated failures)</t>
+  </si>
+  <si>
+    <t>Frequent (failure is
+almost inevitable)</t>
+  </si>
+  <si>
+    <t>Parts not operating, major functions
+online, Operation can continue</t>
+  </si>
+  <si>
+    <t>Major part(s) not operating,
+operation standstill</t>
+  </si>
+  <si>
+    <t>Major part(s) not operting, no
+guaranteed stop, mechanical danger</t>
+  </si>
+  <si>
+    <t>Extremely Unlikely (Virtually impossible or No known occurrence on similar products or processes, with many running hours)</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Hardware failiure (erroneous data)</t>
+  </si>
+  <si>
+    <t>bad data</t>
+  </si>
+  <si>
+    <t>Colission detection mistriggers/fails</t>
+  </si>
+  <si>
+    <t>Override col. Detection
+subroutine</t>
+  </si>
+  <si>
+    <t>Type of Failiure</t>
+  </si>
+  <si>
+    <t>Broken chip</t>
+  </si>
+  <si>
+    <t>Fuse / broken chip</t>
+  </si>
+  <si>
+    <t>Broken chip / code bug</t>
+  </si>
+  <si>
+    <t>Broken circuitry</t>
+  </si>
+  <si>
+    <t>Broken sensor</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>No external communication</t>
+  </si>
+  <si>
+    <t>No outside input or view of cameras</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Crash that breaks it</t>
+  </si>
+  <si>
+    <t>Broken cable</t>
+  </si>
+  <si>
+    <t>Fix cable</t>
+  </si>
+  <si>
+    <t>Rpi-Encoder Arduino</t>
+  </si>
+  <si>
+    <t>Rpi - Motor driver arduino</t>
+  </si>
+  <si>
+    <t>Motor drivers - Motors</t>
+  </si>
+  <si>
+    <t>Rpi - relay arduino</t>
+  </si>
+  <si>
+    <t>No wheel speed data</t>
+  </si>
+  <si>
+    <t>Rpi - switch</t>
+  </si>
+  <si>
+    <t>Broken cable, bad ethernet port</t>
+  </si>
+  <si>
+    <t>No external comm, no
+cameras, no lidar.</t>
+  </si>
+  <si>
+    <t>fix cable / replace rpi</t>
+  </si>
+  <si>
+    <t>Relays forced to default</t>
+  </si>
+  <si>
+    <t>No Propulsion, warning light on.</t>
+  </si>
+  <si>
+    <t>Camera - switch</t>
+  </si>
+  <si>
+    <t>Camera off</t>
+  </si>
+  <si>
+    <t>No camera data from that camera</t>
+  </si>
+  <si>
+    <t>VPN network</t>
+  </si>
+  <si>
+    <t>Server down, no internet access</t>
+  </si>
+  <si>
+    <t>No propulsion, no communications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +341,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -120,9 +366,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -137,10 +418,34 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -175,8 +480,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,22 +528,194 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,125 +1045,826 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H40"/>
+  <dimension ref="C1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="32.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="3"/>
+    <col min="11" max="11" width="26.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="57.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="3:8">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="3:8" ht="16" thickBot="1">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" ht="16" thickBot="1">
-      <c r="C6" s="4" t="s">
+    <row r="1" spans="3:13" ht="16" thickBot="1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="3:13" ht="16" thickBot="1">
+      <c r="C2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="3:13" ht="45">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="3:13" ht="30">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="3:13" ht="30">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="3:13" ht="30">
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="3:13" ht="30">
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="5">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="3:13" ht="16" thickBot="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="3:13" ht="16" thickBot="1">
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="K13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5" t="s">
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="13">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="30">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="13">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" ht="30">
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="30">
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="13">
+        <v>2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="30">
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
+      <c r="C38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="2" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
-      <c r="D37" s="2" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF008000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="3"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF008000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF6600"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C8 H3:H7">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FF008000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/FMEA.xlsx
+++ b/FMEA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
   <si>
     <t>Hardware failiure</t>
   </si>
@@ -303,6 +303,49 @@
   </si>
   <si>
     <t>No propulsion, no communications</t>
+  </si>
+  <si>
+    <t>Roscore pub/sub</t>
+  </si>
+  <si>
+    <t>No node communication</t>
+  </si>
+  <si>
+    <t>roscore bug / crash</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Encoder Arduino</t>
+  </si>
+  <si>
+    <t>Erroneous data out</t>
+  </si>
+  <si>
+    <t>Bad circuitry / bug</t>
+  </si>
+  <si>
+    <t>Sending bad wheel data</t>
+  </si>
+  <si>
+    <t>Possible runaway situation</t>
+  </si>
+  <si>
+    <t>Use emergency
+motor cutoff relay</t>
+  </si>
+  <si>
+    <t>Motor driver</t>
+  </si>
+  <si>
+    <t>Short in circuitry</t>
+  </si>
+  <si>
+    <t>No power control</t>
+  </si>
+  <si>
+    <t>Hardware failiure, Power lock</t>
   </si>
 </sst>
 </file>
@@ -520,8 +563,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -633,7 +682,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -675,6 +724,9 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -716,6 +768,9 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1789,6 +1844,87 @@
       </c>
       <c r="J38" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="30">
+      <c r="C43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="30">
+      <c r="C44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="4:4">
